--- a/out/test/resources/Test Attachments/50 CI's (WithDuplicates)/50CIsXLSX.xlsx
+++ b/out/test/resources/Test Attachments/50 CI's (WithDuplicates)/50CIsXLSX.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\oneworkflow.automation\src\test\resources\Test Attachments\50 CI's (WithDuplicates)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\oneworkflow-automation\src\test\resources\Test Attachments\50 CI's (WithDuplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09708D3-1C3F-454F-9BF5-1CEE5718A046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D0722C-1792-4366-822C-E768FF89CD53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="29699" windowHeight="16197" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="792" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="CIList" sheetId="1" r:id="rId1"/>
+    <sheet name="50CIsCSV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIList!$A$1</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>CI Name</t>
   </si>
@@ -31,7 +28,7 @@
     <t>SE</t>
   </si>
   <si>
-    <t>SE_99999_ID_MISSEDCI</t>
+    <t>selanne</t>
   </si>
   <si>
     <t>SE OSS RC</t>
@@ -55,6 +52,9 @@
     <t>SE_AAA_AAA99SE</t>
   </si>
   <si>
+    <t>SELYCAL01S-FLX</t>
+  </si>
+  <si>
     <t>LT_AC_AC-KONDIC_202</t>
   </si>
   <si>
@@ -79,7 +79,7 @@
     <t>LT_2F198011_ID_MISSEDCI</t>
   </si>
   <si>
-    <t>LT_31CA_ID_MISSEDCI</t>
+    <t>Selleri ACC</t>
   </si>
   <si>
     <t>LT_57FA_ID_MISSEDCI</t>
@@ -97,43 +97,331 @@
     <t>NO_AC_AC-AKH902-350-1-403</t>
   </si>
   <si>
-    <t>NO_AC_AC-AKH902-350-1-404</t>
-  </si>
-  <si>
-    <t>DK_AAA_AAA02DK</t>
-  </si>
-  <si>
-    <t>dk gdpr purpose</t>
+    <t>WOAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -141,18 +429,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,277 +937,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/out/test/resources/Test Attachments/50 CI's (WithDuplicates)/50CIsXLSX.xlsx
+++ b/out/test/resources/Test Attachments/50 CI's (WithDuplicates)/50CIsXLSX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\oneworkflow-automation\src\test\resources\Test Attachments\50 CI's (WithDuplicates)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneworkflow-automation\src\test\resources\Test Attachments\50 CI's (WithDuplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E6FAA5-71C2-4324-B2AB-94A832C00745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A6B48-7139-43F1-BA68-6BCB4B30E822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>CI Name</t>
   </si>
   <si>
     <t>SE</t>
-  </si>
-  <si>
-    <t>SE_99999_ID_MISSEDCI</t>
   </si>
   <si>
     <t>SE OSS RC</t>
@@ -467,8 +464,8 @@
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -488,12 +485,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -503,107 +500,107 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -613,122 +610,122 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/out/test/resources/Test Attachments/50 CI's (WithDuplicates)/50CIsXLSX.xlsx
+++ b/out/test/resources/Test Attachments/50 CI's (WithDuplicates)/50CIsXLSX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneworkflow-automation\src\test\resources\Test Attachments\50 CI's (WithDuplicates)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneworkflow-automation-new\src\test\resources\Test Attachments\50 CI's (WithDuplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A6B48-7139-43F1-BA68-6BCB4B30E822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C2A448-74F8-4783-BEDB-E873471819E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>CI Name</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>SE OSS RC</t>
   </si>
   <si>
@@ -58,30 +55,6 @@
     <t>LT DNS SIP</t>
   </si>
   <si>
-    <t>LT_023A_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2C964012_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2C975011_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2F180011_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2F196011_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2F198011_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_31CA_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_57FA_ID_MISSEDCI</t>
-  </si>
-  <si>
     <t>NO_AC_AC-AKH902-350-1-201</t>
   </si>
   <si>
@@ -94,20 +67,59 @@
     <t>NO_AC_AC-AKH902-350-1-403</t>
   </si>
   <si>
-    <t>NO_AC_AC-AKH902-350-1-404</t>
-  </si>
-  <si>
-    <t>DK_AAA_AAA02DK</t>
-  </si>
-  <si>
-    <t>dk gdpr purpose</t>
+    <t>SE_SGSN_HYMME2</t>
+  </si>
+  <si>
+    <t>EE_CNDB_kjjtiams011</t>
+  </si>
+  <si>
+    <t>SE_SGSN_LDHMME1</t>
+  </si>
+  <si>
+    <r>
+      <t>FI_EPG_FI-CSGN01EPG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>NO_EPG_AKH902EPG3</t>
+  </si>
+  <si>
+    <t>sehan9087verk1</t>
+  </si>
+  <si>
+    <t>Selleri ACC</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Kuumo1HT</t>
+  </si>
+  <si>
+    <t>WOAT</t>
+  </si>
+  <si>
+    <t>NO_RNC_RNC101</t>
+  </si>
+  <si>
+    <t>DK_RNC_ABRNC02</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Rauha4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +132,19 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,11 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +490,8 @@
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -479,253 +505,253 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
+      <c r="A20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
+      <c r="A22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
